--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calum\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neillmacguire/Desktop/CS991 - Mobile App Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{B2B6AE60-3E67-489E-B24A-9ED309E5133E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{72C2E2BD-5310-4039-9A4F-F80896B3AF59}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAA637D-FA6F-D64F-9955-3DDA1DA60B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{8C07C6D1-C176-4889-B72D-67DEE028155D}"/>
+    <workbookView xWindow="2020" yWindow="460" windowWidth="23980" windowHeight="15200" activeTab="1" xr2:uid="{8C07C6D1-C176-4889-B72D-67DEE028155D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="31">
   <si>
     <t>W/C</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>TBC</t>
+  </si>
+  <si>
+    <t>User Case &amp; MR</t>
   </si>
 </sst>
 </file>
@@ -177,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -186,6 +189,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,19 +510,19 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
-    <col min="3" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>43892</v>
       </c>
@@ -535,37 +539,37 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -573,22 +577,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -602,28 +606,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E431C31D-B566-4505-AD8F-DC40C00CAD7F}">
   <dimension ref="A2:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -646,7 +650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -663,7 +667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -686,7 +690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -706,7 +710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -726,7 +730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -746,7 +750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -769,7 +773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -789,7 +793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -809,7 +813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -832,67 +836,112 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -901,25 +950,25 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -928,43 +977,43 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -973,7 +1022,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -982,307 +1031,307 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
     </row>
   </sheetData>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neillmacguire/Desktop/CS991 - Mobile App Development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b38c4752f33287f4/Desktop/Projects/MOB DEV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAA637D-FA6F-D64F-9955-3DDA1DA60B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E8EF45-A3D5-4608-82BE-3B4AE823E607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="460" windowWidth="23980" windowHeight="15200" activeTab="1" xr2:uid="{8C07C6D1-C176-4889-B72D-67DEE028155D}"/>
+    <workbookView xWindow="-30" yWindow="-30" windowWidth="16980" windowHeight="10740" activeTab="1" xr2:uid="{8C07C6D1-C176-4889-B72D-67DEE028155D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>W/C</t>
   </si>
@@ -125,13 +125,25 @@
   </si>
   <si>
     <t>User Case &amp; MR</t>
+  </si>
+  <si>
+    <t>Prototype submission 11.55pm tonight</t>
+  </si>
+  <si>
+    <t>Questionnaire for Kostas's evaluation</t>
+  </si>
+  <si>
+    <t>Prototype development</t>
+  </si>
+  <si>
+    <t>Add Kostas to Github</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +155,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF201F1E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -190,6 +209,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,19 +530,19 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.796875" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B2" s="1">
         <v>43892</v>
       </c>
@@ -539,37 +559,37 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -577,22 +597,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -604,30 +624,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E431C31D-B566-4505-AD8F-DC40C00CAD7F}">
-  <dimension ref="A2:G131"/>
+  <dimension ref="A2:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.46484375" customWidth="1"/>
+    <col min="9" max="9" width="20.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -650,7 +670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -667,7 +687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -690,7 +710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -710,7 +730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -730,7 +750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -750,7 +770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -773,7 +793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -793,7 +813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -813,7 +833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -836,7 +856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -856,7 +876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -876,7 +896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -899,21 +919,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -923,416 +943,449 @@
       <c r="C19" s="6"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
         <v>43907</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
         <v>43908</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
         <v>43909</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
         <v>43910</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
         <v>43911</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
         <v>43912</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
         <v>43913</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
         <v>43914</v>
       </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
         <v>43915</v>
       </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
         <v>43916</v>
       </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
         <v>43917</v>
       </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
         <v>43918</v>
       </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
         <v>43919</v>
       </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
         <v>43920</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
         <v>43921</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
         <v>43922</v>
       </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
         <v>43923</v>
       </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
         <v>43924</v>
       </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
         <v>43925</v>
       </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
         <v>43926</v>
       </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A134" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
